--- a/biology/Médecine/Mycobacterium_leprae/Mycobacterium_leprae.xlsx
+++ b/biology/Médecine/Mycobacterium_leprae/Mycobacterium_leprae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mycobacterium leprae (ou bacille de Hansen) est la bactérie responsable de la lèpre chez l'homme (et le tatou)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mycobacterium leprae (ou bacille de Hansen) est la bactérie responsable de la lèpre chez l'homme (et le tatou).
 C'est un bacille intracellulaire, pléomorphique (le plus souvent en forme de bâtonnet), acido-alcoolo-résistant, à métabolisme aérobie.
 Il apparaît en microscopie optique (après coloration de Ziehl-Neelsen) sous forme d'amas ou de chaînettes.
 Il a été mis en évidence en 1873 par le médecin norvégien Gerhard Armauer Hansen qui le cherchait dans des lésions cutanées d'un patient atteint de lèpre.
@@ -515,7 +527,9 @@
           <t>Facteurs de virulence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>M. leprae étant une bactérie intracellulaire, elle échappe aux anticorps. Cependant, elle est détruite par la réponse immunitaire à médiation cellulaire.
 Le bacille de la lèpre :
